--- a/testdata/testdata.xlsx
+++ b/testdata/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - Bharatiya Vidya Bhavans Sardar Patel Institute Of Technology\#Testing\Automation Testing\Sites Specific\Zoho_HybridFramework\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFE9AD7A-D255-472F-BD0E-1DF29EBE9E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A165C7-59C8-4C14-AC23-A4E9F22EE642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{F8E48310-0EF6-4426-B953-55F96C52AC76}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="28">
   <si>
     <t>fname</t>
   </si>
@@ -508,20 +508,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD0CF50F-4A37-49D6-94C2-259D03B29A2A}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="4" width="9.140625" style="1"/>
     <col min="5" max="5" width="14.5703125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="13" width="9.140625" style="1"/>
+    <col min="14" max="14" width="16.42578125" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -549,8 +551,35 @@
       <c r="I1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -577,15 +606,43 @@
       </c>
       <c r="I2" s="1" t="s">
         <v>26</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="1">
+        <v>7769967226</v>
+      </c>
+      <c r="O2" s="1">
+        <v>7769967226</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R2" s="1">
+        <v>416410</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{33AD8307-7A3E-4812-8BEA-B4C739A33DB7}"/>
     <hyperlink ref="D2" r:id="rId2" xr:uid="{129CFAED-3502-415E-AEAE-F58B2679789D}"/>
+    <hyperlink ref="P2" r:id="rId3" xr:uid="{27BEBAFB-7A9F-42CB-944D-084A00CF544B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -594,7 +651,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E2"/>
+      <selection activeCell="F1" sqref="F1:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/testdata/testdata.xlsx
+++ b/testdata/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - Bharatiya Vidya Bhavans Sardar Patel Institute Of Technology\#Testing\Automation Testing\Sites Specific\Zoho_HybridFramework\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A165C7-59C8-4C14-AC23-A4E9F22EE642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE8DA669-C0C2-4DEE-9087-89B159CAAEF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{F8E48310-0EF6-4426-B953-55F96C52AC76}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
   <si>
     <t>fname</t>
   </si>
@@ -121,6 +121,36 @@
   </si>
   <si>
     <t>secemail@gmail.com</t>
+  </si>
+  <si>
+    <t>salutation</t>
+  </si>
+  <si>
+    <t>Mr.</t>
+  </si>
+  <si>
+    <t>leadstatus</t>
+  </si>
+  <si>
+    <t>Attempted to Contact</t>
+  </si>
+  <si>
+    <t>leadsrc</t>
+  </si>
+  <si>
+    <t>Advertisement</t>
+  </si>
+  <si>
+    <t>industry</t>
+  </si>
+  <si>
+    <t>ASP (Application Service Provider)</t>
+  </si>
+  <si>
+    <t>rating</t>
+  </si>
+  <si>
+    <t>Acquired</t>
   </si>
 </sst>
 </file>
@@ -508,138 +538,168 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD0CF50F-4A37-49D6-94C2-259D03B29A2A}">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.140625" style="1"/>
-    <col min="14" max="14" width="16.42578125" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" customWidth="1"/>
+    <col min="8" max="15" width="9.140625" style="1"/>
+    <col min="16" max="16" width="16.42578125" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>1234</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="1">
         <v>50</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="1">
+      <c r="P2" s="1">
         <v>7769967226</v>
       </c>
-      <c r="O2" s="1">
+      <c r="Q2" s="1">
         <v>7769967226</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="R2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="1">
+      <c r="W2" s="1">
         <v>416410</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{33AD8307-7A3E-4812-8BEA-B4C739A33DB7}"/>
-    <hyperlink ref="D2" r:id="rId2" xr:uid="{129CFAED-3502-415E-AEAE-F58B2679789D}"/>
-    <hyperlink ref="P2" r:id="rId3" xr:uid="{27BEBAFB-7A9F-42CB-944D-084A00CF544B}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{33AD8307-7A3E-4812-8BEA-B4C739A33DB7}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{129CFAED-3502-415E-AEAE-F58B2679789D}"/>
+    <hyperlink ref="U2" r:id="rId3" xr:uid="{27BEBAFB-7A9F-42CB-944D-084A00CF544B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
